--- a/data/pca/factorExposure/factorExposure_2017-01-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.00657918716750489</v>
+        <v>0.01290970012103313</v>
       </c>
       <c r="C2">
-        <v>-0.02463828941376753</v>
+        <v>-0.04026505621217482</v>
       </c>
       <c r="D2">
-        <v>0.03236089012851089</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03195681098459057</v>
+      </c>
+      <c r="E2">
+        <v>-0.05075288998717714</v>
+      </c>
+      <c r="F2">
+        <v>-0.01617145293310537</v>
+      </c>
+      <c r="G2">
+        <v>-0.1074979884023704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04975514629539276</v>
+        <v>0.03812560512136615</v>
       </c>
       <c r="C3">
-        <v>-0.1108062940022876</v>
+        <v>-0.09283582076530121</v>
       </c>
       <c r="D3">
-        <v>0.03447936774084413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01906917116782756</v>
+      </c>
+      <c r="E3">
+        <v>-0.1046085246518744</v>
+      </c>
+      <c r="F3">
+        <v>-0.02176553115672934</v>
+      </c>
+      <c r="G3">
+        <v>-0.121830795918593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05244076637387056</v>
+        <v>0.05479178577239283</v>
       </c>
       <c r="C4">
-        <v>-0.06220186441840797</v>
+        <v>-0.06219674663885687</v>
       </c>
       <c r="D4">
-        <v>0.03288610811742772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02654627685049701</v>
+      </c>
+      <c r="E4">
+        <v>-0.04992669373208639</v>
+      </c>
+      <c r="F4">
+        <v>-0.005852318228535161</v>
+      </c>
+      <c r="G4">
+        <v>-0.09551594979363515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01537453049502096</v>
+        <v>0.03295619550316024</v>
       </c>
       <c r="C6">
-        <v>-0.04972677989687978</v>
+        <v>-0.04582571247844897</v>
       </c>
       <c r="D6">
-        <v>0.0276371761097802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0195399708208439</v>
+      </c>
+      <c r="E6">
+        <v>-0.05653610373548431</v>
+      </c>
+      <c r="F6">
+        <v>-0.01072920212281341</v>
+      </c>
+      <c r="G6">
+        <v>-0.08774297903454938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.009652044259355636</v>
+        <v>0.02015560278574128</v>
       </c>
       <c r="C7">
-        <v>-0.03874074283226501</v>
+        <v>-0.03559210061235726</v>
       </c>
       <c r="D7">
-        <v>0.02264115373654761</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01550193822817815</v>
+      </c>
+      <c r="E7">
+        <v>-0.02616856071835702</v>
+      </c>
+      <c r="F7">
+        <v>-0.0003569542061642866</v>
+      </c>
+      <c r="G7">
+        <v>-0.1264397283591903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.00581763139515964</v>
+        <v>0.003482875022246733</v>
       </c>
       <c r="C8">
-        <v>-0.004317841724954218</v>
+        <v>-0.02073511503849734</v>
       </c>
       <c r="D8">
-        <v>0.004171562258351725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.00468798754436471</v>
+      </c>
+      <c r="E8">
+        <v>-0.03626125396775775</v>
+      </c>
+      <c r="F8">
+        <v>-0.006283418393206634</v>
+      </c>
+      <c r="G8">
+        <v>-0.07146895472862501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02307820902498695</v>
+        <v>0.03333103460012998</v>
       </c>
       <c r="C9">
-        <v>-0.0375707984021971</v>
+        <v>-0.04492301096890659</v>
       </c>
       <c r="D9">
-        <v>0.02152718699769218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01751714879246862</v>
+      </c>
+      <c r="E9">
+        <v>-0.03614351990519565</v>
+      </c>
+      <c r="F9">
+        <v>-0.003406313793223269</v>
+      </c>
+      <c r="G9">
+        <v>-0.1015854155200748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1128282735165384</v>
+        <v>0.09820999296712335</v>
       </c>
       <c r="C10">
-        <v>0.1637684594631638</v>
+        <v>0.1895135340632938</v>
       </c>
       <c r="D10">
-        <v>-0.07545866708881706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01546274540527934</v>
+      </c>
+      <c r="E10">
+        <v>-0.01453238894115291</v>
+      </c>
+      <c r="F10">
+        <v>-0.02869601062052688</v>
+      </c>
+      <c r="G10">
+        <v>-0.05175646677544107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.02987625746951459</v>
+        <v>0.03534306627159185</v>
       </c>
       <c r="C11">
-        <v>-0.05792911697654803</v>
+        <v>-0.05204285204001383</v>
       </c>
       <c r="D11">
-        <v>0.01269116935242107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002911506665261113</v>
+      </c>
+      <c r="E11">
+        <v>-0.02557025952246252</v>
+      </c>
+      <c r="F11">
+        <v>0.01289266081267661</v>
+      </c>
+      <c r="G11">
+        <v>-0.07714129405736374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.02871188932235412</v>
+        <v>0.03742688864293154</v>
       </c>
       <c r="C12">
-        <v>-0.0491485861880186</v>
+        <v>-0.0463741914443766</v>
       </c>
       <c r="D12">
-        <v>0.0156024852945053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.007002726382600178</v>
+      </c>
+      <c r="E12">
+        <v>-0.01564122707325952</v>
+      </c>
+      <c r="F12">
+        <v>0.001999191520944575</v>
+      </c>
+      <c r="G12">
+        <v>-0.07615402988673747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.005828858404281344</v>
+        <v>0.00967481307876809</v>
       </c>
       <c r="C13">
-        <v>-0.0229986841177336</v>
+        <v>-0.03490211531245543</v>
       </c>
       <c r="D13">
-        <v>0.02924343931015645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02986716554797119</v>
+      </c>
+      <c r="E13">
+        <v>-0.06136701983298035</v>
+      </c>
+      <c r="F13">
+        <v>-0.01795047860116136</v>
+      </c>
+      <c r="G13">
+        <v>-0.1365569657428059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.001865224936653903</v>
+        <v>0.008919300654238941</v>
       </c>
       <c r="C14">
-        <v>-0.02354523503217974</v>
+        <v>-0.02514078373501255</v>
       </c>
       <c r="D14">
-        <v>0.01476301923407776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.011711805766219</v>
+      </c>
+      <c r="E14">
+        <v>-0.02081236703586296</v>
+      </c>
+      <c r="F14">
+        <v>-0.009184478231009227</v>
+      </c>
+      <c r="G14">
+        <v>-0.1170315633879633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.02571068622268454</v>
+        <v>0.03371192920597025</v>
       </c>
       <c r="C16">
-        <v>-0.03998998289040691</v>
+        <v>-0.04488863101119634</v>
       </c>
       <c r="D16">
-        <v>0.00805890896788565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002596556144710472</v>
+      </c>
+      <c r="E16">
+        <v>-0.02218036812824857</v>
+      </c>
+      <c r="F16">
+        <v>-0.006093355216343251</v>
+      </c>
+      <c r="G16">
+        <v>-0.08394526801359545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02035699333441095</v>
+        <v>0.017639805579184</v>
       </c>
       <c r="C19">
-        <v>-0.04863245721531598</v>
+        <v>-0.04566094762219101</v>
       </c>
       <c r="D19">
-        <v>0.02472993156076532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02270512737005118</v>
+      </c>
+      <c r="E19">
+        <v>-0.0965701858516114</v>
+      </c>
+      <c r="F19">
+        <v>-0.01631636243989131</v>
+      </c>
+      <c r="G19">
+        <v>-0.1343258855536911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.005738226219742311</v>
+        <v>0.01445765025593283</v>
       </c>
       <c r="C20">
-        <v>-0.03325629476912165</v>
+        <v>-0.03741005570283441</v>
       </c>
       <c r="D20">
-        <v>0.02054124009638995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01606078526502283</v>
+      </c>
+      <c r="E20">
+        <v>-0.04650593855479788</v>
+      </c>
+      <c r="F20">
+        <v>-0.02867738329156107</v>
+      </c>
+      <c r="G20">
+        <v>-0.1100523555095126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.000705905444862014</v>
+        <v>0.00612604434993143</v>
       </c>
       <c r="C21">
-        <v>-0.02562639862847522</v>
+        <v>-0.03046824271870727</v>
       </c>
       <c r="D21">
-        <v>0.02232943675256392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02206170997323785</v>
+      </c>
+      <c r="E21">
+        <v>-0.06427189896010861</v>
+      </c>
+      <c r="F21">
+        <v>-0.01991627088725</v>
+      </c>
+      <c r="G21">
+        <v>-0.1519798863069416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001165945098280725</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.005914298623527943</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002686993460829317</v>
+      </c>
+      <c r="E22">
+        <v>-0.01999776593360832</v>
+      </c>
+      <c r="F22">
+        <v>0.002512772285092566</v>
+      </c>
+      <c r="G22">
+        <v>-0.006771998331934672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.00114136988316512</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.005824730205123192</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002672714516312734</v>
+      </c>
+      <c r="E23">
+        <v>-0.01991209852528115</v>
+      </c>
+      <c r="F23">
+        <v>0.002266131216123961</v>
+      </c>
+      <c r="G23">
+        <v>-0.006626420657543362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.01952823136537828</v>
+        <v>0.03007831371416975</v>
       </c>
       <c r="C24">
-        <v>-0.04638030253068919</v>
+        <v>-0.04949993780608752</v>
       </c>
       <c r="D24">
-        <v>0.01600057563787977</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007731749134041311</v>
+      </c>
+      <c r="E24">
+        <v>-0.02051452382501063</v>
+      </c>
+      <c r="F24">
+        <v>0.002936649985693946</v>
+      </c>
+      <c r="G24">
+        <v>-0.08558799209047162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.03627907528512345</v>
+        <v>0.04273245669024522</v>
       </c>
       <c r="C25">
-        <v>-0.05759154293170506</v>
+        <v>-0.05643647817261119</v>
       </c>
       <c r="D25">
-        <v>0.02186667366117954</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0118412577448605</v>
+      </c>
+      <c r="E25">
+        <v>-0.01396872939033424</v>
+      </c>
+      <c r="F25">
+        <v>0.003701078684113088</v>
+      </c>
+      <c r="G25">
+        <v>-0.09115684939827198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004472786836558123</v>
+        <v>0.01454615195590155</v>
       </c>
       <c r="C26">
-        <v>0.0009965663431328905</v>
+        <v>-0.009511120115301863</v>
       </c>
       <c r="D26">
-        <v>0.02215975453591014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02470303144219486</v>
+      </c>
+      <c r="E26">
+        <v>-0.01618715948207391</v>
+      </c>
+      <c r="F26">
+        <v>-0.00635637464340587</v>
+      </c>
+      <c r="G26">
+        <v>-0.08744261986932414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1403406999991226</v>
+        <v>0.1284587294555136</v>
       </c>
       <c r="C28">
-        <v>0.190614816594765</v>
+        <v>0.2435756581345759</v>
       </c>
       <c r="D28">
-        <v>-0.0743985174860311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.00685703058770009</v>
+      </c>
+      <c r="E28">
+        <v>0.003582756665275299</v>
+      </c>
+      <c r="F28">
+        <v>-0.0278273683097055</v>
+      </c>
+      <c r="G28">
+        <v>-0.04887510626784267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008627632406485205</v>
+        <v>0.007710394800407885</v>
       </c>
       <c r="C29">
-        <v>-0.01918988710199072</v>
+        <v>-0.02121810431641707</v>
       </c>
       <c r="D29">
-        <v>0.01167726738756809</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01041617111560459</v>
+      </c>
+      <c r="E29">
+        <v>-0.01232281874174244</v>
+      </c>
+      <c r="F29">
+        <v>-0.01349510170610149</v>
+      </c>
+      <c r="G29">
+        <v>-0.1052878923323956</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02634803572904508</v>
+        <v>0.03801585156959555</v>
       </c>
       <c r="C30">
-        <v>-0.07221878358684106</v>
+        <v>-0.06309758827589697</v>
       </c>
       <c r="D30">
-        <v>0.04282855316816418</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03192292909767088</v>
+      </c>
+      <c r="E30">
+        <v>-0.07919815785147968</v>
+      </c>
+      <c r="F30">
+        <v>0.01342764014489149</v>
+      </c>
+      <c r="G30">
+        <v>-0.1235553752844486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03469160075251784</v>
+        <v>0.05312539402623837</v>
       </c>
       <c r="C31">
-        <v>-0.02335520045842982</v>
+        <v>-0.03787446760474918</v>
       </c>
       <c r="D31">
-        <v>0.005897205719343599</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004312596431859269</v>
+      </c>
+      <c r="E31">
+        <v>-0.0008317190805980382</v>
+      </c>
+      <c r="F31">
+        <v>-0.03685545158135357</v>
+      </c>
+      <c r="G31">
+        <v>-0.09757222226361272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001237001474619108</v>
+        <v>0.001495883653245977</v>
       </c>
       <c r="C32">
-        <v>-0.03324979165020273</v>
+        <v>-0.01913389554647886</v>
       </c>
       <c r="D32">
-        <v>0.002576018588748443</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.00114248924982606</v>
+      </c>
+      <c r="E32">
+        <v>-0.0511652707762217</v>
+      </c>
+      <c r="F32">
+        <v>0.02125749595393807</v>
+      </c>
+      <c r="G32">
+        <v>-0.0736471410720205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02156465053597223</v>
+        <v>0.02648751804744787</v>
       </c>
       <c r="C33">
-        <v>-0.04986670288603793</v>
+        <v>-0.04653082735789012</v>
       </c>
       <c r="D33">
-        <v>0.0229122363356418</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.018331353576945</v>
+      </c>
+      <c r="E33">
+        <v>-0.06620894943919003</v>
+      </c>
+      <c r="F33">
+        <v>-0.0003515229251900764</v>
+      </c>
+      <c r="G33">
+        <v>-0.1585965208513831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.0417984092383767</v>
+        <v>0.04100028596295185</v>
       </c>
       <c r="C34">
-        <v>-0.06164666696757692</v>
+        <v>-0.05997266823608573</v>
       </c>
       <c r="D34">
-        <v>0.005080411687005498</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.003903064127834918</v>
+      </c>
+      <c r="E34">
+        <v>-0.01892527588733995</v>
+      </c>
+      <c r="F34">
+        <v>0.01699614155275733</v>
+      </c>
+      <c r="G34">
+        <v>-0.0813401924013763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.009851386689455066</v>
+        <v>0.01490848018875269</v>
       </c>
       <c r="C36">
-        <v>-9.187249927606548e-05</v>
+        <v>-0.005725733781453309</v>
       </c>
       <c r="D36">
-        <v>0.009739516352535412</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01374956918622536</v>
+      </c>
+      <c r="E36">
+        <v>-0.019545847192495</v>
+      </c>
+      <c r="F36">
+        <v>-0.009109940316096838</v>
+      </c>
+      <c r="G36">
+        <v>-0.09730193702509844</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0259955541111081</v>
+        <v>0.02997334407255873</v>
       </c>
       <c r="C38">
-        <v>-0.02506546806030741</v>
+        <v>-0.02333672410745493</v>
       </c>
       <c r="D38">
-        <v>-0.005034804362700112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.006423362280246416</v>
+      </c>
+      <c r="E38">
+        <v>-0.01798115409000734</v>
+      </c>
+      <c r="F38">
+        <v>-0.0147971026894166</v>
+      </c>
+      <c r="G38">
+        <v>-0.09115861956306549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01982822291122604</v>
+        <v>0.03608509021591492</v>
       </c>
       <c r="C39">
-        <v>-0.08194857744866789</v>
+        <v>-0.07673999364367214</v>
       </c>
       <c r="D39">
-        <v>0.03038344890637755</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01334826258302326</v>
+      </c>
+      <c r="E39">
+        <v>-0.03972033755525597</v>
+      </c>
+      <c r="F39">
+        <v>0.01136323711282612</v>
+      </c>
+      <c r="G39">
+        <v>-0.0949275193838577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01385470489040679</v>
+        <v>0.01588010544010715</v>
       </c>
       <c r="C40">
-        <v>-0.01952704395162557</v>
+        <v>-0.03343888527441764</v>
       </c>
       <c r="D40">
-        <v>0.01474935975015559</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01551887537166584</v>
+      </c>
+      <c r="E40">
+        <v>-0.03515484733646486</v>
+      </c>
+      <c r="F40">
+        <v>-0.02769421841049725</v>
+      </c>
+      <c r="G40">
+        <v>-0.1196719370888226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01097864977298966</v>
+        <v>0.01857271119100454</v>
       </c>
       <c r="C41">
-        <v>0.003844672810416964</v>
+        <v>0.0009391574596961339</v>
       </c>
       <c r="D41">
-        <v>0.0008221035096003291</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005800323337062143</v>
+      </c>
+      <c r="E41">
+        <v>-0.01624922205286237</v>
+      </c>
+      <c r="F41">
+        <v>-0.01527102900175269</v>
+      </c>
+      <c r="G41">
+        <v>-0.09133657108344954</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.006363697021776342</v>
+        <v>0.004823044675503236</v>
       </c>
       <c r="C42">
-        <v>-0.03068389379228763</v>
+        <v>-0.02883397891724382</v>
       </c>
       <c r="D42">
-        <v>0.1009784090138695</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08441112803725438</v>
+      </c>
+      <c r="E42">
+        <v>0.007484182453066378</v>
+      </c>
+      <c r="F42">
+        <v>-0.03107427764700188</v>
+      </c>
+      <c r="G42">
+        <v>0.01887953284525922</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02697099826491783</v>
+        <v>0.03299718027013158</v>
       </c>
       <c r="C43">
-        <v>-0.009114968142528056</v>
+        <v>-0.01292592420432972</v>
       </c>
       <c r="D43">
-        <v>0.002266172349637632</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.00737494995850762</v>
+      </c>
+      <c r="E43">
+        <v>-0.03421807382104818</v>
+      </c>
+      <c r="F43">
+        <v>-0.01230504337160865</v>
+      </c>
+      <c r="G43">
+        <v>-0.1187266016439312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0112055571444471</v>
+        <v>0.01325331384150253</v>
       </c>
       <c r="C44">
-        <v>-0.05353857622501753</v>
+        <v>-0.05274228215615464</v>
       </c>
       <c r="D44">
-        <v>0.01731721166674777</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.008608012384916076</v>
+      </c>
+      <c r="E44">
+        <v>-0.0385855175281109</v>
+      </c>
+      <c r="F44">
+        <v>-0.0195658222507653</v>
+      </c>
+      <c r="G44">
+        <v>-0.1215566521286133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.001891827317469683</v>
+        <v>0.009592251915109961</v>
       </c>
       <c r="C46">
-        <v>-0.003819881351124016</v>
+        <v>-0.01351049088103053</v>
       </c>
       <c r="D46">
-        <v>0.01232358431549213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01315330041889065</v>
+      </c>
+      <c r="E46">
+        <v>-0.003740330838042376</v>
+      </c>
+      <c r="F46">
+        <v>-0.01830603289535773</v>
+      </c>
+      <c r="G46">
+        <v>-0.1117836542327036</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05730476542036034</v>
+        <v>0.08111125582900809</v>
       </c>
       <c r="C47">
-        <v>-0.06821477888593401</v>
+        <v>-0.06952379214890764</v>
       </c>
       <c r="D47">
-        <v>0.008409410251949421</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005035550629634295</v>
+      </c>
+      <c r="E47">
+        <v>0.008277185573397922</v>
+      </c>
+      <c r="F47">
+        <v>-0.0455857065946371</v>
+      </c>
+      <c r="G47">
+        <v>-0.08672800785469298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.009827707644361475</v>
+        <v>0.01789377529567801</v>
       </c>
       <c r="C48">
-        <v>-0.007834964309720244</v>
+        <v>-0.01021116945062601</v>
       </c>
       <c r="D48">
-        <v>0.00182645301807644</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.003489567137757717</v>
+      </c>
+      <c r="E48">
+        <v>-0.01458006454409485</v>
+      </c>
+      <c r="F48">
+        <v>-0.02132171426522251</v>
+      </c>
+      <c r="G48">
+        <v>-0.1090468851999965</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.06598555118437571</v>
+        <v>0.0743909693194129</v>
       </c>
       <c r="C50">
-        <v>-0.06773308805445723</v>
+        <v>-0.06833536909695097</v>
       </c>
       <c r="D50">
-        <v>0.00771305928475169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001655929563339897</v>
+      </c>
+      <c r="E50">
+        <v>0.003630395742129977</v>
+      </c>
+      <c r="F50">
+        <v>-0.04622176245594169</v>
+      </c>
+      <c r="G50">
+        <v>-0.1014734595368399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.009286650190080403</v>
+        <v>0.01142243668586698</v>
       </c>
       <c r="C51">
-        <v>-0.03254500029499633</v>
+        <v>-0.03385319893571768</v>
       </c>
       <c r="D51">
-        <v>0.01521447783995075</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01215102380453393</v>
+      </c>
+      <c r="E51">
+        <v>-0.03898426246709166</v>
+      </c>
+      <c r="F51">
+        <v>0.006702455957678839</v>
+      </c>
+      <c r="G51">
+        <v>-0.1144500687438534</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08404712103320899</v>
+        <v>0.08345252678929872</v>
       </c>
       <c r="C53">
-        <v>-0.08716132896900264</v>
+        <v>-0.0828087703097337</v>
       </c>
       <c r="D53">
-        <v>0.01038664226317476</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.004080879723074559</v>
+      </c>
+      <c r="E53">
+        <v>0.02956765089453582</v>
+      </c>
+      <c r="F53">
+        <v>-0.04909066052555267</v>
+      </c>
+      <c r="G53">
+        <v>-0.09229238281339666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02569231010987613</v>
+        <v>0.03154818534688716</v>
       </c>
       <c r="C54">
-        <v>-0.004165441888954796</v>
+        <v>-0.01445640783968159</v>
       </c>
       <c r="D54">
-        <v>-0.005554990320410433</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.000163155635500489</v>
+      </c>
+      <c r="E54">
+        <v>-0.02657170195310209</v>
+      </c>
+      <c r="F54">
+        <v>-0.01395721880487233</v>
+      </c>
+      <c r="G54">
+        <v>-0.1135534566770391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.06197285609696945</v>
+        <v>0.07711735203449169</v>
       </c>
       <c r="C55">
-        <v>-0.07201261289533675</v>
+        <v>-0.0676102919625982</v>
       </c>
       <c r="D55">
-        <v>0.008671953359857994</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005860741318626763</v>
+      </c>
+      <c r="E55">
+        <v>0.03148354596168428</v>
+      </c>
+      <c r="F55">
+        <v>-0.04897728201495241</v>
+      </c>
+      <c r="G55">
+        <v>-0.06977971632359717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1281307430582809</v>
+        <v>0.1381992478799968</v>
       </c>
       <c r="C56">
-        <v>-0.1169739742672751</v>
+        <v>-0.104554291995359</v>
       </c>
       <c r="D56">
-        <v>0.006209538971766257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01319738263783302</v>
+      </c>
+      <c r="E56">
+        <v>0.0374516292082594</v>
+      </c>
+      <c r="F56">
+        <v>-0.05616051224853646</v>
+      </c>
+      <c r="G56">
+        <v>-0.05455501992720511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.009877755791004587</v>
+        <v>0.003737682695733159</v>
       </c>
       <c r="C57">
-        <v>-0.003620600485407081</v>
+        <v>-0.003660558423850483</v>
       </c>
       <c r="D57">
-        <v>0.02240664148747667</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02294151170095547</v>
+      </c>
+      <c r="E57">
+        <v>-0.02400473419256362</v>
+      </c>
+      <c r="F57">
+        <v>-0.001970207239481495</v>
+      </c>
+      <c r="G57">
+        <v>-0.01406414425598288</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.03615453576202998</v>
+        <v>0.03991322629739855</v>
       </c>
       <c r="C58">
-        <v>-0.06057431923766323</v>
+        <v>-0.02983682699556285</v>
       </c>
       <c r="D58">
-        <v>0.0125177931259658</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.0369342306935988</v>
+      </c>
+      <c r="E58">
+        <v>-0.7455195250724296</v>
+      </c>
+      <c r="F58">
+        <v>-0.5567962082333826</v>
+      </c>
+      <c r="G58">
+        <v>0.3020871336873879</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1839147618353161</v>
+        <v>0.1565877942370535</v>
       </c>
       <c r="C59">
-        <v>0.1816085878472547</v>
+        <v>0.2092568172170306</v>
       </c>
       <c r="D59">
-        <v>-0.08447619842893762</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01054922010965743</v>
+      </c>
+      <c r="E59">
+        <v>-0.02092910792079699</v>
+      </c>
+      <c r="F59">
+        <v>-0.009284255014720182</v>
+      </c>
+      <c r="G59">
+        <v>-0.03529322541641512</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2951444474006265</v>
+        <v>0.2854296598379422</v>
       </c>
       <c r="C60">
-        <v>-0.1438311237642237</v>
+        <v>-0.1066175637275178</v>
       </c>
       <c r="D60">
-        <v>0.0143264163586083</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0168485746841177</v>
+      </c>
+      <c r="E60">
+        <v>-0.1160908230997261</v>
+      </c>
+      <c r="F60">
+        <v>0.3085293138960506</v>
+      </c>
+      <c r="G60">
+        <v>0.1671860484087584</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.02272021602892278</v>
+        <v>0.03882518525205209</v>
       </c>
       <c r="C61">
-        <v>-0.064919113501445</v>
+        <v>-0.06277717969633352</v>
       </c>
       <c r="D61">
-        <v>0.01878074214286148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.007115609759680642</v>
+      </c>
+      <c r="E61">
+        <v>-0.03681094051634666</v>
+      </c>
+      <c r="F61">
+        <v>0.005194872381096536</v>
+      </c>
+      <c r="G61">
+        <v>-0.09067775810186876</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01063574960685862</v>
+        <v>0.01476405132251033</v>
       </c>
       <c r="C63">
-        <v>-0.03033206210876174</v>
+        <v>-0.02674781655020618</v>
       </c>
       <c r="D63">
-        <v>0.0150035619242585</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.009193315473873476</v>
+      </c>
+      <c r="E63">
+        <v>-0.01084868151111057</v>
+      </c>
+      <c r="F63">
+        <v>-0.01685056749924028</v>
+      </c>
+      <c r="G63">
+        <v>-0.09187884576474835</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04181005630107844</v>
+        <v>0.05016747890363988</v>
       </c>
       <c r="C64">
-        <v>-0.0367791901853191</v>
+        <v>-0.04660014185084757</v>
       </c>
       <c r="D64">
-        <v>0.009591546331027545</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006396392464521673</v>
+      </c>
+      <c r="E64">
+        <v>-0.009657606287858653</v>
+      </c>
+      <c r="F64">
+        <v>0.004739343419600985</v>
+      </c>
+      <c r="G64">
+        <v>-0.09627091964596721</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07259838412869909</v>
+        <v>0.07041188478278558</v>
       </c>
       <c r="C65">
-        <v>-0.0831166127315473</v>
+        <v>-0.05397749230068027</v>
       </c>
       <c r="D65">
-        <v>0.02930442524636894</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01886957265160926</v>
+      </c>
+      <c r="E65">
+        <v>-0.06009853297844462</v>
+      </c>
+      <c r="F65">
+        <v>0.007717869821894304</v>
+      </c>
+      <c r="G65">
+        <v>-0.04046629301927164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.03520512751945361</v>
+        <v>0.04701187453229418</v>
       </c>
       <c r="C66">
-        <v>-0.1285989387559255</v>
+        <v>-0.1026790386074014</v>
       </c>
       <c r="D66">
-        <v>0.04114279557482339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01430321799847554</v>
+      </c>
+      <c r="E66">
+        <v>-0.06340660668159076</v>
+      </c>
+      <c r="F66">
+        <v>0.01979395282674524</v>
+      </c>
+      <c r="G66">
+        <v>-0.09912651965843836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05405745121742352</v>
+        <v>0.05404141100625547</v>
       </c>
       <c r="C67">
-        <v>-0.03359819815053471</v>
+        <v>-0.02978249018178849</v>
       </c>
       <c r="D67">
-        <v>-0.003700773522385066</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005384207765707748</v>
+      </c>
+      <c r="E67">
+        <v>-0.005618626415821217</v>
+      </c>
+      <c r="F67">
+        <v>-0.00943565993077785</v>
+      </c>
+      <c r="G67">
+        <v>-0.07761385871783721</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1662852399945144</v>
+        <v>0.1564555165117498</v>
       </c>
       <c r="C68">
-        <v>0.2381108514363843</v>
+        <v>0.2705667025636376</v>
       </c>
       <c r="D68">
-        <v>-0.07748015547970287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.004811382215272992</v>
+      </c>
+      <c r="E68">
+        <v>0.01129946502844848</v>
+      </c>
+      <c r="F68">
+        <v>-0.04769199431250769</v>
+      </c>
+      <c r="G68">
+        <v>-0.01638014503852353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.06723079906867131</v>
+        <v>0.08275584939167228</v>
       </c>
       <c r="C69">
-        <v>-0.06673397335016472</v>
+        <v>-0.07187917323070458</v>
       </c>
       <c r="D69">
-        <v>0.002090546772356036</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008695758768410946</v>
+      </c>
+      <c r="E69">
+        <v>0.01612071993681439</v>
+      </c>
+      <c r="F69">
+        <v>-0.02330332852475578</v>
+      </c>
+      <c r="G69">
+        <v>-0.100451073426711</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1597864062567305</v>
+        <v>0.1424160870895411</v>
       </c>
       <c r="C71">
-        <v>0.1872041476972454</v>
+        <v>0.2314583674396529</v>
       </c>
       <c r="D71">
-        <v>-0.07353224555928844</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002929685598207863</v>
+      </c>
+      <c r="E71">
+        <v>-0.02374180593260442</v>
+      </c>
+      <c r="F71">
+        <v>-0.03249622227779633</v>
+      </c>
+      <c r="G71">
+        <v>-0.05993891769643316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.06200903150327292</v>
+        <v>0.08448659687634799</v>
       </c>
       <c r="C72">
-        <v>-0.07414566928157863</v>
+        <v>-0.06391539933806685</v>
       </c>
       <c r="D72">
-        <v>0.004154418393195527</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006886381181731723</v>
+      </c>
+      <c r="E72">
+        <v>-0.01068064042146974</v>
+      </c>
+      <c r="F72">
+        <v>0.02215332436590091</v>
+      </c>
+      <c r="G72">
+        <v>-0.08245857295115119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4101284509975969</v>
+        <v>0.3666213568758157</v>
       </c>
       <c r="C73">
-        <v>-0.2002911775039413</v>
+        <v>-0.108875415216408</v>
       </c>
       <c r="D73">
-        <v>0.01958299622687001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.03062921510904166</v>
+      </c>
+      <c r="E73">
+        <v>-0.2621610360897172</v>
+      </c>
+      <c r="F73">
+        <v>0.5408662710339133</v>
+      </c>
+      <c r="G73">
+        <v>0.318803455019667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.09302827894667064</v>
+        <v>0.1065490632770258</v>
       </c>
       <c r="C74">
-        <v>-0.1317518375688445</v>
+        <v>-0.1059970425845563</v>
       </c>
       <c r="D74">
-        <v>0.0172004938449463</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009378312324155062</v>
+      </c>
+      <c r="E74">
+        <v>0.009273185278755288</v>
+      </c>
+      <c r="F74">
+        <v>-0.05791784575088906</v>
+      </c>
+      <c r="G74">
+        <v>-0.07637308151571062</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2250558716653142</v>
+        <v>0.2490223729135549</v>
       </c>
       <c r="C75">
-        <v>-0.1821197781186795</v>
+        <v>-0.1488926489410244</v>
       </c>
       <c r="D75">
-        <v>0.00239347133314043</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03263912246408099</v>
+      </c>
+      <c r="E75">
+        <v>0.09994641692870945</v>
+      </c>
+      <c r="F75">
+        <v>-0.1301322338147867</v>
+      </c>
+      <c r="G75">
+        <v>-0.01386863149904096</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.107202587021489</v>
+        <v>0.1188085122012638</v>
       </c>
       <c r="C76">
-        <v>-0.1322519517550622</v>
+        <v>-0.1073118620341073</v>
       </c>
       <c r="D76">
-        <v>0.008176178254680677</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01835774329193651</v>
+      </c>
+      <c r="E76">
+        <v>0.04177374660161899</v>
+      </c>
+      <c r="F76">
+        <v>-0.08116159078384903</v>
+      </c>
+      <c r="G76">
+        <v>-0.06881739952329195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.04670796317123917</v>
+        <v>0.0688019058085439</v>
       </c>
       <c r="C77">
-        <v>-0.05890253942046573</v>
+        <v>-0.05016413441818291</v>
       </c>
       <c r="D77">
-        <v>0.0184684303065485</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01248613921773932</v>
+      </c>
+      <c r="E77">
+        <v>-0.06753974111086389</v>
+      </c>
+      <c r="F77">
+        <v>-0.008889090798163048</v>
+      </c>
+      <c r="G77">
+        <v>-0.09096454618290672</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04118553365662769</v>
+        <v>0.04004438177867492</v>
       </c>
       <c r="C78">
-        <v>-0.05620876932399949</v>
+        <v>-0.0492646755060496</v>
       </c>
       <c r="D78">
-        <v>0.01353340760388774</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.008492705747003807</v>
+      </c>
+      <c r="E78">
+        <v>-0.05000313569159955</v>
+      </c>
+      <c r="F78">
+        <v>0.02330584469713744</v>
+      </c>
+      <c r="G78">
+        <v>-0.09202464197352257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.00159839437135919</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0008964963656264156</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0008797715711115219</v>
+      </c>
+      <c r="E79">
+        <v>-0.007385981499003796</v>
+      </c>
+      <c r="F79">
+        <v>-0.002011663684831211</v>
+      </c>
+      <c r="G79">
+        <v>-0.00843305766196361</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0455461897000155</v>
+        <v>0.04032739371615716</v>
       </c>
       <c r="C80">
-        <v>-0.06219003979804358</v>
+        <v>-0.0487723237354717</v>
       </c>
       <c r="D80">
-        <v>0.02306739825614023</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01499659031918239</v>
+      </c>
+      <c r="E80">
+        <v>-0.03807073604258659</v>
+      </c>
+      <c r="F80">
+        <v>-0.005044569401023558</v>
+      </c>
+      <c r="G80">
+        <v>-0.05762903484655395</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1215460203564986</v>
+        <v>0.1391714038552468</v>
       </c>
       <c r="C81">
-        <v>-0.1050279155119342</v>
+        <v>-0.09191410482799957</v>
       </c>
       <c r="D81">
-        <v>0.004005324472578832</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01588174909334936</v>
+      </c>
+      <c r="E81">
+        <v>0.06176398990102244</v>
+      </c>
+      <c r="F81">
+        <v>-0.1029910015603703</v>
+      </c>
+      <c r="G81">
+        <v>-0.03645546955067692</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.0408191020019016</v>
+        <v>0.1663790954197213</v>
       </c>
       <c r="C82">
-        <v>-0.03462341907945824</v>
+        <v>-0.1149879112551691</v>
       </c>
       <c r="D82">
-        <v>0.003131664100678984</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01764296790773433</v>
+      </c>
+      <c r="E82">
+        <v>0.1689439499400518</v>
+      </c>
+      <c r="F82">
+        <v>-0.04836249280271632</v>
+      </c>
+      <c r="G82">
+        <v>-0.02037549938816973</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02122061321219635</v>
+        <v>0.03334469056028146</v>
       </c>
       <c r="C83">
-        <v>-0.02016809962703609</v>
+        <v>-0.02984418777880917</v>
       </c>
       <c r="D83">
-        <v>0.007515508669654457</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.007904002174679015</v>
+      </c>
+      <c r="E83">
+        <v>-0.04224888017635013</v>
+      </c>
+      <c r="F83">
+        <v>0.02833106792570657</v>
+      </c>
+      <c r="G83">
+        <v>-0.05362560772064495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2220446957037508</v>
+        <v>0.2103394018141838</v>
       </c>
       <c r="C85">
-        <v>-0.1922896590694631</v>
+        <v>-0.1420964782311609</v>
       </c>
       <c r="D85">
-        <v>0.01678438641106254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01849549411300138</v>
+      </c>
+      <c r="E85">
+        <v>0.1066310788317921</v>
+      </c>
+      <c r="F85">
+        <v>-0.05969321072298087</v>
+      </c>
+      <c r="G85">
+        <v>0.02156232069302145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.00671684091355038</v>
+        <v>0.01135957191710425</v>
       </c>
       <c r="C86">
-        <v>-0.02207040049007387</v>
+        <v>-0.02501015379670238</v>
       </c>
       <c r="D86">
-        <v>0.01194189528899002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01418080215053396</v>
+      </c>
+      <c r="E86">
+        <v>-0.07358416305713464</v>
+      </c>
+      <c r="F86">
+        <v>0.01705985866098211</v>
+      </c>
+      <c r="G86">
+        <v>-0.1721855459067017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006308539437814572</v>
+        <v>0.02095960104308734</v>
       </c>
       <c r="C87">
-        <v>-0.01790991457844923</v>
+        <v>-0.01501306183117128</v>
       </c>
       <c r="D87">
-        <v>0.01289157964842039</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01435460315486577</v>
+      </c>
+      <c r="E87">
+        <v>-0.09977146744284664</v>
+      </c>
+      <c r="F87">
+        <v>-0.02936917814468481</v>
+      </c>
+      <c r="G87">
+        <v>-0.1093237412142447</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.07921434765327973</v>
+        <v>0.08982340016841997</v>
       </c>
       <c r="C88">
-        <v>-0.05993460993405245</v>
+        <v>-0.0663676621300138</v>
       </c>
       <c r="D88">
-        <v>0.03042483814277717</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0231647482831346</v>
+      </c>
+      <c r="E88">
+        <v>-0.008155543738755391</v>
+      </c>
+      <c r="F88">
+        <v>-0.01582115682840141</v>
+      </c>
+      <c r="G88">
+        <v>-0.1047953090416761</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2724814580193579</v>
+        <v>0.2293872584576897</v>
       </c>
       <c r="C89">
-        <v>0.3302785355536509</v>
+        <v>0.3703811298270263</v>
       </c>
       <c r="D89">
-        <v>-0.1220513611110192</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0004102898489212052</v>
+      </c>
+      <c r="E89">
+        <v>0.02758457175769442</v>
+      </c>
+      <c r="F89">
+        <v>-0.01520628845990267</v>
+      </c>
+      <c r="G89">
+        <v>-0.07712679301066573</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2337759108690252</v>
+        <v>0.2075445807944306</v>
       </c>
       <c r="C90">
-        <v>0.2919512822962192</v>
+        <v>0.3165131080331909</v>
       </c>
       <c r="D90">
-        <v>-0.1112394009230553</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004555554390481972</v>
+      </c>
+      <c r="E90">
+        <v>0.01414141068262867</v>
+      </c>
+      <c r="F90">
+        <v>-0.04915441690402508</v>
+      </c>
+      <c r="G90">
+        <v>-0.04471365596685611</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1751909237456349</v>
+        <v>0.1858724516403076</v>
       </c>
       <c r="C91">
-        <v>-0.1379095703175147</v>
+        <v>-0.1364062147332045</v>
       </c>
       <c r="D91">
-        <v>-0.001021235507775931</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02333387074743252</v>
+      </c>
+      <c r="E91">
+        <v>0.08151856221310187</v>
+      </c>
+      <c r="F91">
+        <v>-0.1011530825183533</v>
+      </c>
+      <c r="G91">
+        <v>-0.04169522907329124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.222880444149377</v>
+        <v>0.1936032263246366</v>
       </c>
       <c r="C92">
-        <v>0.2022173007800875</v>
+        <v>0.2631295881138096</v>
       </c>
       <c r="D92">
-        <v>-0.1203531751814087</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03791343874538878</v>
+      </c>
+      <c r="E92">
+        <v>-0.02276283648934216</v>
+      </c>
+      <c r="F92">
+        <v>-0.05570969716828637</v>
+      </c>
+      <c r="G92">
+        <v>-0.0859753858443084</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2513789662728779</v>
+        <v>0.2298496302138124</v>
       </c>
       <c r="C93">
-        <v>0.2667379284322175</v>
+        <v>0.3133316623169026</v>
       </c>
       <c r="D93">
-        <v>-0.1120186883696108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01026767671071398</v>
+      </c>
+      <c r="E93">
+        <v>-0.000416526937572666</v>
+      </c>
+      <c r="F93">
+        <v>-0.03901914600179861</v>
+      </c>
+      <c r="G93">
+        <v>-0.05531850725243127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2385435571328126</v>
+        <v>0.3330187651833428</v>
       </c>
       <c r="C94">
-        <v>-0.1859749886264311</v>
+        <v>-0.2069820604830203</v>
       </c>
       <c r="D94">
-        <v>0.0236946211824807</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02943188242761759</v>
+      </c>
+      <c r="E94">
+        <v>0.380121941569878</v>
+      </c>
+      <c r="F94">
+        <v>-0.384959702158077</v>
+      </c>
+      <c r="G94">
+        <v>0.3717348782255181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.05857313698853581</v>
+        <v>0.08832170227369834</v>
       </c>
       <c r="C95">
-        <v>-0.1146981322758692</v>
+        <v>-0.07468466592581521</v>
       </c>
       <c r="D95">
-        <v>0.01824285813146055</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.006074537750199331</v>
+      </c>
+      <c r="E95">
+        <v>-0.1340404454639782</v>
+      </c>
+      <c r="F95">
+        <v>0.1506528310914459</v>
+      </c>
+      <c r="G95">
+        <v>-0.08133422229978703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.199217838268847</v>
+        <v>0.1912603371440841</v>
       </c>
       <c r="C98">
-        <v>-0.084415771813644</v>
+        <v>-0.04925540463292376</v>
       </c>
       <c r="D98">
-        <v>-0.01906039194679808</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.009046562769720629</v>
+      </c>
+      <c r="E98">
+        <v>-0.1311228686522602</v>
+      </c>
+      <c r="F98">
+        <v>0.1949390018852293</v>
+      </c>
+      <c r="G98">
+        <v>0.05836769317070113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008359019749618108</v>
+        <v>0.007556568892877148</v>
       </c>
       <c r="C101">
-        <v>-0.01947836777847163</v>
+        <v>-0.02109726376379792</v>
       </c>
       <c r="D101">
-        <v>0.01164740647561847</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01023109478897503</v>
+      </c>
+      <c r="E101">
+        <v>-0.0118264568800394</v>
+      </c>
+      <c r="F101">
+        <v>-0.01431422424572586</v>
+      </c>
+      <c r="G101">
+        <v>-0.1049483414016647</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1066918441670098</v>
+        <v>0.1207834141051304</v>
       </c>
       <c r="C102">
-        <v>-0.09145626844266955</v>
+        <v>-0.09063128781142137</v>
       </c>
       <c r="D102">
-        <v>0.01692380947413924</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-8.516910063799921e-05</v>
+      </c>
+      <c r="E102">
+        <v>0.04504895760293368</v>
+      </c>
+      <c r="F102">
+        <v>-0.01891345564208559</v>
+      </c>
+      <c r="G102">
+        <v>-0.0196652962535164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.1316381741277629</v>
+        <v>0.02036442184320109</v>
       </c>
       <c r="C104">
-        <v>0.2878983051018022</v>
+        <v>0.02794676475554581</v>
       </c>
       <c r="D104">
-        <v>0.9392775808251836</v>
+        <v>-0.9860403699921026</v>
+      </c>
+      <c r="E104">
+        <v>0.08774343392112803</v>
+      </c>
+      <c r="F104">
+        <v>-0.02033759577726366</v>
+      </c>
+      <c r="G104">
+        <v>0.03816464097835735</v>
       </c>
     </row>
   </sheetData>
